--- a/Sprint 3/gantt Sprint 3.xlsx
+++ b/Sprint 3/gantt Sprint 3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00C9E2AA-D460-D340-8DC0-62768AD9D2F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6B3DEC-06A3-874B-81CC-3EC0C99DFA08}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10000" yWindow="0" windowWidth="15600" windowHeight="16000" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>About This Template</t>
   </si>
@@ -269,6 +269,18 @@
   </si>
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>Rhys &amp; Liz</t>
+  </si>
+  <si>
+    <t>George &amp; Rhys</t>
+  </si>
+  <si>
+    <t>Jeniel &amp; Saphire</t>
+  </si>
+  <si>
+    <t>Jeniel</t>
   </si>
 </sst>
 </file>
@@ -844,6 +856,15 @@
   </cellStyles>
   <dxfs count="35">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
@@ -1252,15 +1273,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -1581,9 +1593,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
@@ -1866,7 +1878,7 @@
   <dimension ref="A1:BL43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AW40" sqref="AW40"/>
+      <selection activeCell="AW38" sqref="AW38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1"/>
@@ -6632,7 +6644,9 @@
       <c r="C30" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="34"/>
+      <c r="D30" s="34" t="s">
+        <v>67</v>
+      </c>
       <c r="E30" s="31">
         <v>1</v>
       </c>
@@ -6876,7 +6890,9 @@
       <c r="C31" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="34"/>
+      <c r="D31" s="34" t="s">
+        <v>68</v>
+      </c>
       <c r="E31" s="31">
         <v>1</v>
       </c>
@@ -7119,7 +7135,9 @@
       <c r="C32" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="34"/>
+      <c r="D32" s="34" t="s">
+        <v>69</v>
+      </c>
       <c r="E32" s="31">
         <v>1</v>
       </c>
@@ -7363,7 +7381,9 @@
       <c r="C33" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="34"/>
+      <c r="D33" s="34" t="s">
+        <v>44</v>
+      </c>
       <c r="E33" s="31">
         <v>1</v>
       </c>
@@ -7605,7 +7625,9 @@
         <v>65</v>
       </c>
       <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
+      <c r="D34" s="34" t="s">
+        <v>36</v>
+      </c>
       <c r="E34" s="31">
         <v>1</v>
       </c>
@@ -7679,7 +7701,9 @@
         <v>66</v>
       </c>
       <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
+      <c r="D35" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="E35" s="31">
         <v>1</v>
       </c>
@@ -7753,7 +7777,9 @@
         <v>54</v>
       </c>
       <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
+      <c r="D36" s="34" t="s">
+        <v>70</v>
+      </c>
       <c r="E36" s="31">
         <v>1</v>
       </c>
@@ -8186,61 +8212,61 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL27 I29:BL41">
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="22" priority="9">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AM4">
-    <cfRule type="expression" dxfId="18" priority="15">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:BL4">
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="20" priority="11">
       <formula>AND(J$5&lt;=EOMONTH($I$5,2),J$5&gt;EOMONTH($I$5,0),J$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:BL4">
-    <cfRule type="expression" dxfId="16" priority="10">
+    <cfRule type="expression" dxfId="19" priority="10">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BL27 I29:BL40">
-    <cfRule type="expression" dxfId="15" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="32" stopIfTrue="1">
       <formula>AND($C8="Low Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="51" stopIfTrue="1">
       <formula>AND($C8="High Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="69" stopIfTrue="1">
       <formula>AND($C8="On Track",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="70" stopIfTrue="1">
       <formula>AND($C8="Med Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="71" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="10" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="79" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="80" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="81" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="82" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="83" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8259,19 +8285,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:BL28">
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="4" stopIfTrue="1">
       <formula>AND($C28="Low Risk",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="5" stopIfTrue="1">
       <formula>AND($C28="High Risk",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>AND($C28="On Track",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>AND($C28="Med Risk",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="8" stopIfTrue="1">
       <formula>AND(LEN($C28)=0,I$5&gt;=$F28,I$5&lt;=$F28+$G28-1)</formula>
     </cfRule>
   </conditionalFormatting>
